--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_1_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_1_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2594915247820542</v>
+        <v>0.248767871177931</v>
       </c>
       <c r="C2">
-        <v>0.8686405534694547</v>
+        <v>0.8568015655085476</v>
       </c>
       <c r="D2">
-        <v>2.421489982649028</v>
+        <v>2.374591342905846</v>
       </c>
       <c r="E2">
-        <v>1.556113743480543</v>
+        <v>1.540970909169231</v>
       </c>
       <c r="F2">
-        <v>1.550225470358736</v>
+        <v>1.536197893679839</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04093393211938264</v>
+        <v>0.04882215121843843</v>
       </c>
       <c r="C3">
-        <v>0.7542276562015754</v>
+        <v>0.7469394130861163</v>
       </c>
       <c r="D3">
-        <v>1.485580606513009</v>
+        <v>1.457578478961404</v>
       </c>
       <c r="E3">
-        <v>1.218843963152384</v>
+        <v>1.207302148992291</v>
       </c>
       <c r="F3">
-        <v>1.23161710235731</v>
+        <v>1.219356202157649</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06110664762105782</v>
+        <v>0.05541629173989827</v>
       </c>
       <c r="C4">
-        <v>0.7637005976278778</v>
+        <v>0.751460361221017</v>
       </c>
       <c r="D4">
-        <v>1.337090126996504</v>
+        <v>1.308898174481467</v>
       </c>
       <c r="E4">
-        <v>1.156326133491976</v>
+        <v>1.144070878259501</v>
       </c>
       <c r="F4">
-        <v>1.167758387871881</v>
+        <v>1.155355179810744</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2963210508843224</v>
+        <v>0.2921665240571426</v>
       </c>
       <c r="C5">
-        <v>0.8775699933826783</v>
+        <v>0.8607796199794472</v>
       </c>
       <c r="D5">
-        <v>2.59150436510354</v>
+        <v>2.535407960140988</v>
       </c>
       <c r="E5">
-        <v>1.609815009590711</v>
+        <v>1.592296442293642</v>
       </c>
       <c r="F5">
-        <v>1.600187623912398</v>
+        <v>1.582558739570702</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07674785008805503</v>
+        <v>0.07348626165398647</v>
       </c>
       <c r="C6">
-        <v>0.8266572463509541</v>
+        <v>0.8093869007750452</v>
       </c>
       <c r="D6">
-        <v>1.991338875079995</v>
+        <v>1.94618247269454</v>
       </c>
       <c r="E6">
-        <v>1.411148069863682</v>
+        <v>1.395056440684225</v>
       </c>
       <c r="F6">
-        <v>1.425735329335398</v>
+        <v>1.409225572003233</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01620960240259717</v>
+        <v>-0.009028182342375235</v>
       </c>
       <c r="C7">
-        <v>0.9432900056449498</v>
+        <v>0.9204870629536859</v>
       </c>
       <c r="D7">
-        <v>2.079659976447273</v>
+        <v>2.016096326641489</v>
       </c>
       <c r="E7">
-        <v>1.44210262341044</v>
+        <v>1.419893068734927</v>
       </c>
       <c r="F7">
-        <v>1.465848036488934</v>
+        <v>1.442583638701003</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08335708765289375</v>
+        <v>0.07140803266404031</v>
       </c>
       <c r="C8">
-        <v>0.9391716043119008</v>
+        <v>0.918135862785761</v>
       </c>
       <c r="D8">
-        <v>1.801167146910862</v>
+        <v>1.745723223468771</v>
       </c>
       <c r="E8">
-        <v>1.342075685984536</v>
+        <v>1.321258197124533</v>
       </c>
       <c r="F8">
-        <v>1.362383336169107</v>
+        <v>1.341135683000723</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1560931005637778</v>
+        <v>0.135685191380836</v>
       </c>
       <c r="C9">
-        <v>0.7616285060151683</v>
+        <v>0.7164848718710426</v>
       </c>
       <c r="D9">
-        <v>0.9923299607672563</v>
+        <v>0.9226493013901432</v>
       </c>
       <c r="E9">
-        <v>0.9961575983584406</v>
+        <v>0.9605463556695967</v>
       </c>
       <c r="F9">
-        <v>1.024025706114815</v>
+        <v>0.9868108548879626</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3574677561300935</v>
+        <v>0.3151042569182115</v>
       </c>
       <c r="C10">
-        <v>1.017019185662576</v>
+        <v>0.8922117577591338</v>
       </c>
       <c r="D10">
-        <v>1.571609061143854</v>
+        <v>1.375200986598577</v>
       </c>
       <c r="E10">
-        <v>1.253638329480977</v>
+        <v>1.172689637797903</v>
       </c>
       <c r="F10">
-        <v>1.297868833337829</v>
+        <v>1.207552563243096</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_1_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_1_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01177902937386835</v>
+        <v>-0.02314597604078636</v>
       </c>
       <c r="C2">
-        <v>0.3233677337305382</v>
+        <v>0.3579920056255013</v>
       </c>
       <c r="D2">
-        <v>0.1387525778210147</v>
+        <v>0.1782699060034266</v>
       </c>
       <c r="E2">
-        <v>0.3724950708680783</v>
+        <v>0.4222202103209018</v>
       </c>
       <c r="F2">
-        <v>0.3863630867095333</v>
+        <v>0.4363822494547141</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.008234150994489252</v>
+        <v>0.01177902937386835</v>
       </c>
       <c r="C3">
-        <v>0.3656812685479343</v>
+        <v>0.3233677337305382</v>
       </c>
       <c r="D3">
-        <v>0.1736781030421116</v>
+        <v>0.1387525778210147</v>
       </c>
       <c r="E3">
-        <v>0.4167470492302394</v>
+        <v>0.3724950708680783</v>
       </c>
       <c r="F3">
-        <v>0.4336794057244024</v>
+        <v>0.3863630867095333</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04114622104959433</v>
+        <v>-0.008234150994489252</v>
       </c>
       <c r="C4">
-        <v>0.2438785208639479</v>
+        <v>0.3656812685479343</v>
       </c>
       <c r="D4">
-        <v>0.09301430872978532</v>
+        <v>0.1736781030421116</v>
       </c>
       <c r="E4">
-        <v>0.3049824728239072</v>
+        <v>0.4167470492302394</v>
       </c>
       <c r="F4">
-        <v>0.315631483433317</v>
+        <v>0.4336794057244024</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.004251297071472607</v>
+        <v>0.04114622104959433</v>
       </c>
       <c r="C5">
-        <v>0.3196557001756482</v>
+        <v>0.2438785208639479</v>
       </c>
       <c r="D5">
-        <v>0.1664324393548997</v>
+        <v>0.09301430872978532</v>
       </c>
       <c r="E5">
-        <v>0.4079613209054257</v>
+        <v>0.3049824728239072</v>
       </c>
       <c r="F5">
-        <v>0.4278502102499434</v>
+        <v>0.315631483433317</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03152289704198964</v>
+        <v>-0.004251297071472607</v>
       </c>
       <c r="C6">
-        <v>0.3137577720403564</v>
+        <v>0.3196557001756482</v>
       </c>
       <c r="D6">
-        <v>0.1200567451426497</v>
+        <v>0.1664324393548997</v>
       </c>
       <c r="E6">
-        <v>0.3464920563918454</v>
+        <v>0.4079613209054257</v>
       </c>
       <c r="F6">
-        <v>0.3637200573468097</v>
+        <v>0.4278502102499434</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05669611638992965</v>
+        <v>-0.03152289704198964</v>
       </c>
       <c r="C7">
-        <v>0.309241221828214</v>
+        <v>0.3137577720403564</v>
       </c>
       <c r="D7">
-        <v>0.12362493933599</v>
+        <v>0.1200567451426497</v>
       </c>
       <c r="E7">
-        <v>0.3516033835673229</v>
+        <v>0.3464920563918454</v>
       </c>
       <c r="F7">
-        <v>0.3680513563860018</v>
+        <v>0.3637200573468097</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04410238231315148</v>
+        <v>-0.05669611638992965</v>
       </c>
       <c r="C8">
-        <v>0.2487243691024244</v>
+        <v>0.309241221828214</v>
       </c>
       <c r="D8">
-        <v>0.1063280554679864</v>
+        <v>0.12362493933599</v>
       </c>
       <c r="E8">
-        <v>0.3260798299005727</v>
+        <v>0.3516033835673229</v>
       </c>
       <c r="F8">
-        <v>0.3453909343541705</v>
+        <v>0.3680513563860018</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.07289500678705241</v>
+        <v>-0.04410238231315148</v>
       </c>
       <c r="C9">
-        <v>0.3460499651212735</v>
+        <v>0.2487243691024244</v>
       </c>
       <c r="D9">
-        <v>0.2127274776992719</v>
+        <v>0.1063280554679864</v>
       </c>
       <c r="E9">
-        <v>0.4612238910759848</v>
+        <v>0.3260798299005727</v>
       </c>
       <c r="F9">
-        <v>0.4919174337551497</v>
+        <v>0.3453909343541705</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05253816173664939</v>
+        <v>-0.07289500678705241</v>
       </c>
       <c r="C10">
-        <v>0.2093953811075043</v>
+        <v>0.3460499651212735</v>
       </c>
       <c r="D10">
-        <v>0.05818608614024737</v>
+        <v>0.2127274776992719</v>
       </c>
       <c r="E10">
-        <v>0.2412179225104291</v>
+        <v>0.4612238910759848</v>
       </c>
       <c r="F10">
-        <v>0.2578972532655152</v>
+        <v>0.4919174337551497</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.009352853557239749</v>
+        <v>-0.05253816173664939</v>
       </c>
       <c r="C11">
-        <v>0.4545107205050175</v>
+        <v>0.2093953811075043</v>
       </c>
       <c r="D11">
-        <v>0.223274494992554</v>
+        <v>0.05818608614024737</v>
       </c>
       <c r="E11">
-        <v>0.4725193064759936</v>
+        <v>0.2412179225104291</v>
       </c>
       <c r="F11">
-        <v>0.5281891459539978</v>
+        <v>0.2578972532655152</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_1_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AVERAGE_1_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02314597604078636</v>
+        <v>0.248767871177931</v>
       </c>
       <c r="C2">
-        <v>0.3579920056255013</v>
+        <v>0.8568015655085476</v>
       </c>
       <c r="D2">
-        <v>0.1782699060034266</v>
+        <v>2.374591342905846</v>
       </c>
       <c r="E2">
-        <v>0.4222202103209018</v>
+        <v>1.540970909169231</v>
       </c>
       <c r="F2">
-        <v>0.4363822494547141</v>
+        <v>1.536197893679839</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01177902937386835</v>
+        <v>0.04882215121843843</v>
       </c>
       <c r="C3">
-        <v>0.3233677337305382</v>
+        <v>0.7469394130861163</v>
       </c>
       <c r="D3">
-        <v>0.1387525778210147</v>
+        <v>1.457578478961404</v>
       </c>
       <c r="E3">
-        <v>0.3724950708680783</v>
+        <v>1.207302148992291</v>
       </c>
       <c r="F3">
-        <v>0.3863630867095333</v>
+        <v>1.219356202157649</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.008234150994489252</v>
+        <v>0.05541629173989827</v>
       </c>
       <c r="C4">
-        <v>0.3656812685479343</v>
+        <v>0.751460361221017</v>
       </c>
       <c r="D4">
-        <v>0.1736781030421116</v>
+        <v>1.308898174481467</v>
       </c>
       <c r="E4">
-        <v>0.4167470492302394</v>
+        <v>1.144070878259501</v>
       </c>
       <c r="F4">
-        <v>0.4336794057244024</v>
+        <v>1.155355179810744</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04114622104959433</v>
+        <v>0.2921665240571426</v>
       </c>
       <c r="C5">
-        <v>0.2438785208639479</v>
+        <v>0.8607796199794472</v>
       </c>
       <c r="D5">
-        <v>0.09301430872978532</v>
+        <v>2.535407960140988</v>
       </c>
       <c r="E5">
-        <v>0.3049824728239072</v>
+        <v>1.592296442293642</v>
       </c>
       <c r="F5">
-        <v>0.315631483433317</v>
+        <v>1.582558739570702</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.004251297071472607</v>
+        <v>0.07348626165398647</v>
       </c>
       <c r="C6">
-        <v>0.3196557001756482</v>
+        <v>0.8093869007750452</v>
       </c>
       <c r="D6">
-        <v>0.1664324393548997</v>
+        <v>1.94618247269454</v>
       </c>
       <c r="E6">
-        <v>0.4079613209054257</v>
+        <v>1.395056440684225</v>
       </c>
       <c r="F6">
-        <v>0.4278502102499434</v>
+        <v>1.409225572003233</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03152289704198964</v>
+        <v>-0.009028182342375235</v>
       </c>
       <c r="C7">
-        <v>0.3137577720403564</v>
+        <v>0.9204870629536859</v>
       </c>
       <c r="D7">
-        <v>0.1200567451426497</v>
+        <v>2.016096326641489</v>
       </c>
       <c r="E7">
-        <v>0.3464920563918454</v>
+        <v>1.419893068734927</v>
       </c>
       <c r="F7">
-        <v>0.3637200573468097</v>
+        <v>1.442583638701003</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05669611638992965</v>
+        <v>0.07140803266404031</v>
       </c>
       <c r="C8">
-        <v>0.309241221828214</v>
+        <v>0.918135862785761</v>
       </c>
       <c r="D8">
-        <v>0.12362493933599</v>
+        <v>1.745723223468771</v>
       </c>
       <c r="E8">
-        <v>0.3516033835673229</v>
+        <v>1.321258197124533</v>
       </c>
       <c r="F8">
-        <v>0.3680513563860018</v>
+        <v>1.341135683000723</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04410238231315148</v>
+        <v>0.135685191380836</v>
       </c>
       <c r="C9">
-        <v>0.2487243691024244</v>
+        <v>0.7164848718710426</v>
       </c>
       <c r="D9">
-        <v>0.1063280554679864</v>
+        <v>0.9226493013901432</v>
       </c>
       <c r="E9">
-        <v>0.3260798299005727</v>
+        <v>0.9605463556695967</v>
       </c>
       <c r="F9">
-        <v>0.3453909343541705</v>
+        <v>0.9868108548879626</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07289500678705241</v>
+        <v>0.3151042569182115</v>
       </c>
       <c r="C10">
-        <v>0.3460499651212735</v>
+        <v>0.8922117577591338</v>
       </c>
       <c r="D10">
-        <v>0.2127274776992719</v>
+        <v>1.375200986598577</v>
       </c>
       <c r="E10">
-        <v>0.4612238910759848</v>
+        <v>1.172689637797903</v>
       </c>
       <c r="F10">
-        <v>0.4919174337551497</v>
+        <v>1.207552563243096</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.05253816173664939</v>
+        <v>0.6609969171670846</v>
       </c>
       <c r="C11">
-        <v>0.2093953811075043</v>
+        <v>0.6609969171670846</v>
       </c>
       <c r="D11">
-        <v>0.05818608614024737</v>
+        <v>0.9723557505147084</v>
       </c>
       <c r="E11">
-        <v>0.2412179225104291</v>
+        <v>0.9860810060612203</v>
       </c>
       <c r="F11">
-        <v>0.2578972532655152</v>
+        <v>0.8449369412449811</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
